--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2694.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2694.xlsx
@@ -354,7 +354,7 @@
         <v>2.417994139704952</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.336006139884441</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2694.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2694.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.163683205130246</v>
+        <v>0.8561180830001831</v>
       </c>
       <c r="B1">
-        <v>2.417994139704952</v>
+        <v>1.423509001731873</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>3.835201025009155</v>
       </c>
       <c r="D1">
-        <v>2.336006139884441</v>
+        <v>2.658177852630615</v>
       </c>
       <c r="E1">
-        <v>1.215684189082324</v>
+        <v>1.60248327255249</v>
       </c>
     </row>
   </sheetData>
